--- a/SO SACH - LA/CONG NO/cong no VL.xlsx
+++ b/SO SACH - LA/CONG NO/cong no VL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ANH KIM'!$A$11:$J$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NGHỊ HÒA'!$A$11:$L$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THÀNH PHÚ'!$A$11:$K$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -2110,6 +2111,26 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="uniBase"/>
+      <sheetName val="vniBase"/>
+      <sheetName val="abcBase"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="VND"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2402,9 +2423,9 @@
   </sheetPr>
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2462,8 +2483,8 @@
         <v>11</v>
       </c>
       <c r="C5" s="164">
-        <f>'TẤN DŨNG'!$J$195</f>
-        <v>59990640</v>
+        <f>'TẤN DŨNG'!$J$202</f>
+        <v>97798740</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,16 +2543,16 @@
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96" t="str">
+      <c r="A10" s="96">
         <f t="array" ref="A10">IF(C10&lt;&gt;0,SUM(($C$4:C10&lt;&gt;0)*1),"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>242</v>
       </c>
       <c r="C10" s="164">
         <f>'TÂN MINH THƯ'!I40</f>
-        <v>0</v>
+        <v>38500000</v>
       </c>
       <c r="D10" s="100"/>
     </row>
@@ -2576,7 +2597,7 @@
       <c r="B15" s="167"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>389504673</v>
+        <v>465812773</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4139,12 +4160,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
+      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10146,112 +10167,164 @@
       <c r="K186" s="28"/>
     </row>
     <row r="187" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="28"/>
+      <c r="A187" s="15">
+        <v>42383</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" s="29">
+        <v>1150</v>
+      </c>
+      <c r="F187" s="28">
+        <v>12000</v>
+      </c>
       <c r="G187" s="102">
-        <f t="shared" ref="G187:G194" si="32">F187*10%</f>
-        <v>0</v>
+        <f t="shared" ref="G187:G201" si="32">F187*10%</f>
+        <v>1200</v>
       </c>
       <c r="H187" s="11">
-        <f t="shared" ref="H187:H194" si="33">IF(B187&lt;&gt;"",(E187*(G187+F187)),0)</f>
-        <v>0</v>
+        <f t="shared" ref="H187:H201" si="33">IF(B187&lt;&gt;"",(E187*(G187+F187)),0)</f>
+        <v>15180000</v>
       </c>
       <c r="I187" s="28"/>
       <c r="J187" s="28">
-        <f t="shared" ref="J187:J194" si="34">IF(B187&lt;&gt;"",J186+H187-I187,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J187:J201" si="34">IF(B187&lt;&gt;"",J186+H187-I187,0)</f>
+        <v>75170640</v>
       </c>
       <c r="K187" s="28"/>
     </row>
     <row r="188" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="28"/>
+      <c r="B188" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E188" s="29">
+        <v>150</v>
+      </c>
+      <c r="F188" s="28">
+        <v>9500</v>
+      </c>
       <c r="G188" s="102">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="H188" s="11">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1567500</v>
       </c>
       <c r="I188" s="28"/>
       <c r="J188" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>76738140</v>
       </c>
       <c r="K188" s="28"/>
     </row>
     <row r="189" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="28"/>
+      <c r="B189" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E189" s="29">
+        <v>400</v>
+      </c>
+      <c r="F189" s="28">
+        <v>17000</v>
+      </c>
       <c r="G189" s="102">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H189" s="11">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7480000</v>
       </c>
       <c r="I189" s="28"/>
       <c r="J189" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>84218140</v>
       </c>
       <c r="K189" s="28"/>
     </row>
     <row r="190" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="28"/>
+      <c r="B190" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E190" s="29">
+        <v>400</v>
+      </c>
+      <c r="F190" s="28">
+        <v>2500</v>
+      </c>
       <c r="G190" s="102">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H190" s="11">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="I190" s="28"/>
       <c r="J190" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>85318140</v>
       </c>
       <c r="K190" s="28"/>
     </row>
     <row r="191" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="28"/>
+      <c r="B191" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="29">
+        <v>620</v>
+      </c>
+      <c r="F191" s="28">
+        <v>18300</v>
+      </c>
       <c r="G191" s="102">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="H191" s="11">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>12480600</v>
       </c>
       <c r="I191" s="28"/>
       <c r="J191" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>97798740</v>
       </c>
       <c r="K191" s="28"/>
     </row>
@@ -10285,16 +10358,16 @@
       <c r="E193" s="29"/>
       <c r="F193" s="28"/>
       <c r="G193" s="102">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="G193:G200" si="35">F193*10%</f>
         <v>0</v>
       </c>
       <c r="H193" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H193:H200" si="36">IF(B193&lt;&gt;"",(E193*(G193+F193)),0)</f>
         <v>0</v>
       </c>
       <c r="I193" s="28"/>
       <c r="J193" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="J193:J200" si="37">IF(B193&lt;&gt;"",J192+H193-I193,0)</f>
         <v>0</v>
       </c>
       <c r="K193" s="28"/>
@@ -10307,116 +10380,263 @@
       <c r="E194" s="29"/>
       <c r="F194" s="28"/>
       <c r="G194" s="102">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H194" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I194" s="28"/>
       <c r="J194" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K194" s="28"/>
+    </row>
+    <row r="195" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="15"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H195" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K195" s="28"/>
+    </row>
+    <row r="196" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="15"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H196" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="28"/>
+    </row>
+    <row r="197" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H197" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K197" s="28"/>
+    </row>
+    <row r="198" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="28"/>
+    </row>
+    <row r="199" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="15"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K199" s="28"/>
+    </row>
+    <row r="200" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H200" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I200" s="28"/>
+      <c r="J200" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K200" s="28"/>
+    </row>
+    <row r="201" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="15"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="29"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H201" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="28"/>
+      <c r="J201" s="28">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K194" s="28"/>
-    </row>
-    <row r="195" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="176" t="s">
+      <c r="K201" s="28"/>
+    </row>
+    <row r="202" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="176"/>
-      <c r="C195" s="176"/>
-      <c r="D195" s="176"/>
-      <c r="E195" s="176"/>
-      <c r="F195" s="176"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="53">
-        <f>SUM(H13:H194)</f>
-        <v>1482791750</v>
-      </c>
-      <c r="I195" s="53">
-        <f>K10+SUM(I13:I194)</f>
+      <c r="B202" s="176"/>
+      <c r="C202" s="176"/>
+      <c r="D202" s="176"/>
+      <c r="E202" s="176"/>
+      <c r="F202" s="176"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="53">
+        <f>SUM(H13:H201)</f>
+        <v>1520599850</v>
+      </c>
+      <c r="I202" s="53">
+        <f>K10+SUM(I13:I201)</f>
         <v>1511000000</v>
       </c>
-      <c r="J195" s="17">
-        <f>J12+H195-I195</f>
-        <v>59990640</v>
-      </c>
-      <c r="K195" s="17"/>
-    </row>
-    <row r="196" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-    </row>
-    <row r="197" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="54" t="s">
+      <c r="J202" s="17">
+        <f>J12+H202-I202</f>
+        <v>97798740</v>
+      </c>
+      <c r="K202" s="17"/>
+    </row>
+    <row r="203" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D197" s="4"/>
-      <c r="E197" s="168">
-        <f>J195</f>
-        <v>59990640</v>
-      </c>
-      <c r="F197" s="168"/>
-      <c r="G197" s="101"/>
-      <c r="H197" s="55" t="s">
+      <c r="D204" s="4"/>
+      <c r="E204" s="168">
+        <f>J202</f>
+        <v>97798740</v>
+      </c>
+      <c r="F204" s="168"/>
+      <c r="G204" s="101"/>
+      <c r="H204" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I197" s="4">
+      <c r="I204" s="4">
         <f>E171*F171</f>
         <v>71540000</v>
       </c>
-      <c r="J197" s="4"/>
-    </row>
-    <row r="198" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="54" t="s">
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C198" s="56" t="e">
-        <f ca="1">[1]!VND(E197, TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-    </row>
-    <row r="199" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-    </row>
-    <row r="200" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="C205" s="56" t="str">
+        <f>[2]!VND(E204, TRUE)</f>
+        <v>Chín mươi bảy triệu, bảy trăm chín mươi tám ngàn, bảy trăm bốn mươi đồng</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="4" t="s">
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
-    </row>
-    <row r="201" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+    </row>
     <row r="208" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="209" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="210" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10436,15 +10656,22 @@
     <row r="224" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A11:K195"/>
+  <autoFilter ref="A11:K202"/>
   <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="E204:F204"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A5:J5"/>
@@ -10465,7 +10692,7 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
@@ -13836,7 +14063,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
@@ -21224,7 +21451,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
@@ -22702,7 +22929,7 @@
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23472,22 +23699,37 @@
       <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="12">
+        <v>42391</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="11">
+        <v>14000</v>
+      </c>
+      <c r="F35" s="14">
+        <f>E35*10%</f>
+        <v>1400</v>
+      </c>
       <c r="G35" s="158">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>38500000</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="11"/>
+        <v>38500000</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="36" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -23572,7 +23814,7 @@
       <c r="F40" s="176"/>
       <c r="G40" s="53">
         <f>SUM(G12:G39)</f>
-        <v>270829000</v>
+        <v>309329000</v>
       </c>
       <c r="H40" s="53">
         <f>SUM(H12:H39)</f>
@@ -23580,7 +23822,7 @@
       </c>
       <c r="I40" s="17">
         <f>G40-H40</f>
-        <v>0</v>
+        <v>38500000</v>
       </c>
       <c r="J40" s="17"/>
     </row>
@@ -23591,7 +23833,7 @@
       </c>
       <c r="E42" s="168">
         <f>I40</f>
-        <v>0</v>
+        <v>38500000</v>
       </c>
       <c r="F42" s="168"/>
       <c r="G42" s="55" t="s">

--- a/SO SACH - LA/CONG NO/cong no VL.xlsx
+++ b/SO SACH - LA/CONG NO/cong no VL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -895,7 +895,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -1093,6 +1093,12 @@
       <b/>
       <sz val="11"/>
       <name val="VNI-Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1552,7 +1558,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1976,6 +1982,22 @@
     <xf numFmtId="169" fontId="27" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2423,7 +2445,7 @@
   </sheetPr>
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -2484,7 +2506,7 @@
       </c>
       <c r="C5" s="164">
         <f>'TẤN DŨNG'!$J$202</f>
-        <v>97798740</v>
+        <v>37798740</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2591,13 +2613,13 @@
       <c r="C14" s="165"/>
     </row>
     <row r="15" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="167"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>465812773</v>
+        <v>405812773</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2806,11 +2828,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="138"/>
       <c r="E1" s="138"/>
       <c r="F1" s="149"/>
@@ -2818,26 +2840,26 @@
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="149"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="139"/>
       <c r="F3" s="149"/>
       <c r="G3" s="49"/>
@@ -2851,28 +2873,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:11" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
@@ -2946,16 +2968,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
       <c r="I12" s="7">
         <v>44477881</v>
       </c>
@@ -4062,14 +4084,14 @@
       <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="176" t="s">
+      <c r="A54" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
       <c r="G54" s="53">
         <f>I12+SUM(G13:G53)</f>
         <v>573903943</v>
@@ -4089,11 +4111,11 @@
       <c r="B56" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="168">
+      <c r="E56" s="176">
         <f>I54</f>
         <v>62481100</v>
       </c>
-      <c r="F56" s="168"/>
+      <c r="F56" s="176"/>
       <c r="G56" s="55" t="s">
         <v>43</v>
       </c>
@@ -4163,9 +4185,9 @@
   <dimension ref="A1:K233"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4184,38 +4206,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="46"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
@@ -4229,30 +4251,30 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
     </row>
     <row r="6" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
     </row>
     <row r="7" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
@@ -4268,13 +4290,13 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
@@ -4332,17 +4354,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="7">
         <v>88198890</v>
       </c>
@@ -10328,27 +10350,31 @@
       </c>
       <c r="K191" s="28"/>
     </row>
-    <row r="192" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="102">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H192" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I192" s="28"/>
+    <row r="192" spans="1:11" s="174" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="167">
+        <v>42403</v>
+      </c>
+      <c r="B192" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="169"/>
+      <c r="D192" s="169"/>
+      <c r="E192" s="170"/>
+      <c r="F192" s="171"/>
+      <c r="G192" s="172">
+        <v>0</v>
+      </c>
+      <c r="H192" s="173">
+        <v>0</v>
+      </c>
+      <c r="I192" s="171">
+        <v>60000000</v>
+      </c>
       <c r="J192" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K192" s="28"/>
+        <v>37798740</v>
+      </c>
+      <c r="K192" s="171"/>
     </row>
     <row r="193" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
@@ -10367,7 +10393,7 @@
       </c>
       <c r="I193" s="28"/>
       <c r="J193" s="28">
-        <f t="shared" ref="J193:J200" si="37">IF(B193&lt;&gt;"",J192+H193-I193,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K193" s="28"/>
@@ -10389,7 +10415,7 @@
       </c>
       <c r="I194" s="28"/>
       <c r="J194" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K194" s="28"/>
@@ -10411,7 +10437,7 @@
       </c>
       <c r="I195" s="28"/>
       <c r="J195" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K195" s="28"/>
@@ -10433,7 +10459,7 @@
       </c>
       <c r="I196" s="28"/>
       <c r="J196" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K196" s="28"/>
@@ -10455,7 +10481,7 @@
       </c>
       <c r="I197" s="28"/>
       <c r="J197" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K197" s="28"/>
@@ -10477,7 +10503,7 @@
       </c>
       <c r="I198" s="28"/>
       <c r="J198" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="J198:J200" si="37">IF(B198&lt;&gt;"",J197+H198-I198,0)</f>
         <v>0</v>
       </c>
       <c r="K198" s="28"/>
@@ -10549,14 +10575,14 @@
       <c r="K201" s="28"/>
     </row>
     <row r="202" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="176" t="s">
+      <c r="A202" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="176"/>
-      <c r="C202" s="176"/>
-      <c r="D202" s="176"/>
-      <c r="E202" s="176"/>
-      <c r="F202" s="176"/>
+      <c r="B202" s="184"/>
+      <c r="C202" s="184"/>
+      <c r="D202" s="184"/>
+      <c r="E202" s="184"/>
+      <c r="F202" s="184"/>
       <c r="G202" s="17"/>
       <c r="H202" s="53">
         <f>SUM(H13:H201)</f>
@@ -10564,11 +10590,11 @@
       </c>
       <c r="I202" s="53">
         <f>K10+SUM(I13:I201)</f>
-        <v>1511000000</v>
+        <v>1571000000</v>
       </c>
       <c r="J202" s="17">
         <f>J12+H202-I202</f>
-        <v>97798740</v>
+        <v>37798740</v>
       </c>
       <c r="K202" s="17"/>
     </row>
@@ -10585,11 +10611,11 @@
         <v>41</v>
       </c>
       <c r="D204" s="4"/>
-      <c r="E204" s="168">
+      <c r="E204" s="176">
         <f>J202</f>
-        <v>97798740</v>
-      </c>
-      <c r="F204" s="168"/>
+        <v>37798740</v>
+      </c>
+      <c r="F204" s="176"/>
       <c r="G204" s="101"/>
       <c r="H204" s="55" t="s">
         <v>43</v>
@@ -10606,7 +10632,7 @@
       </c>
       <c r="C205" s="56" t="str">
         <f>[2]!VND(E204, TRUE)</f>
-        <v>Chín mươi bảy triệu, bảy trăm chín mươi tám ngàn, bảy trăm bốn mươi đồng</v>
+        <v>Ba mươi bảy triệu, bảy trăm chín mươi tám ngàn, bảy trăm bốn mươi đồng</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -10691,8 +10717,8 @@
   </sheetPr>
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
@@ -10715,11 +10741,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -10737,14 +10763,14 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="46"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
@@ -10756,30 +10782,30 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:12" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
     </row>
     <row r="6" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -10862,18 +10888,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
       <c r="K12" s="7">
         <v>44045875</v>
       </c>
@@ -13047,16 +13073,16 @@
       <c r="L76" s="30"/>
     </row>
     <row r="77" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="179" t="s">
+      <c r="A77" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
-      <c r="E77" s="180"/>
-      <c r="F77" s="180"/>
-      <c r="G77" s="180"/>
-      <c r="H77" s="181"/>
+      <c r="B77" s="188"/>
+      <c r="C77" s="188"/>
+      <c r="D77" s="188"/>
+      <c r="E77" s="188"/>
+      <c r="F77" s="188"/>
+      <c r="G77" s="188"/>
+      <c r="H77" s="189"/>
       <c r="I77" s="17">
         <f>SUM(I13:I76)</f>
         <v>388962090</v>
@@ -13089,11 +13115,11 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="168">
+      <c r="E79" s="176">
         <f>K77</f>
         <v>0</v>
       </c>
-      <c r="F79" s="168"/>
+      <c r="F79" s="176"/>
       <c r="G79" s="55" t="s">
         <v>43</v>
       </c>
@@ -14084,37 +14110,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
@@ -14127,28 +14153,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
@@ -14218,16 +14244,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
       <c r="I12" s="7">
         <v>32075000</v>
       </c>
@@ -14645,14 +14671,14 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
       <c r="G30" s="53">
         <f>I12+SUM(G13:G29)</f>
         <v>118050000</v>
@@ -14672,11 +14698,11 @@
       <c r="B32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="168">
+      <c r="E32" s="176">
         <f>I30</f>
         <v>9400000</v>
       </c>
-      <c r="F32" s="168"/>
+      <c r="F32" s="176"/>
       <c r="G32" s="55" t="s">
         <v>43</v>
       </c>
@@ -14763,37 +14789,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
@@ -14806,28 +14832,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
@@ -14898,16 +14924,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
       <c r="I12" s="7">
         <v>89700000</v>
       </c>
@@ -21351,14 +21377,14 @@
       <c r="J261" s="11"/>
     </row>
     <row r="262" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="176" t="s">
+      <c r="A262" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B262" s="176"/>
-      <c r="C262" s="176"/>
-      <c r="D262" s="176"/>
-      <c r="E262" s="176"/>
-      <c r="F262" s="176"/>
+      <c r="B262" s="184"/>
+      <c r="C262" s="184"/>
+      <c r="D262" s="184"/>
+      <c r="E262" s="184"/>
+      <c r="F262" s="184"/>
       <c r="G262" s="53">
         <f>SUM(G13:G261)</f>
         <v>2612809533</v>
@@ -21378,11 +21404,11 @@
       <c r="B264" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E264" s="168">
+      <c r="E264" s="176">
         <f>I262</f>
         <v>210799533</v>
       </c>
-      <c r="F264" s="168"/>
+      <c r="F264" s="176"/>
       <c r="G264" s="55" t="s">
         <v>43</v>
       </c>
@@ -21472,11 +21498,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="153"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
@@ -21484,26 +21510,26 @@
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
@@ -21517,28 +21543,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117"/>
@@ -22827,14 +22853,14 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="176" t="s">
+      <c r="A61" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
+      <c r="B61" s="184"/>
+      <c r="C61" s="184"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="184"/>
+      <c r="F61" s="184"/>
       <c r="G61" s="53">
         <f>SUM(G12:G60)</f>
         <v>283391400</v>
@@ -22854,11 +22880,11 @@
       <c r="B63" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="168">
+      <c r="E63" s="176">
         <f>I61</f>
         <v>46833400</v>
       </c>
-      <c r="F63" s="168"/>
+      <c r="F63" s="176"/>
       <c r="G63" s="55" t="s">
         <v>43</v>
       </c>
@@ -22948,11 +22974,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
@@ -22969,10 +22995,10 @@
       <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="57" t="s">
         <v>46</v>
       </c>
@@ -22987,26 +23013,26 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23266,16 +23292,16 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
     </row>
     <row r="20" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -23804,14 +23830,14 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="176" t="s">
+      <c r="A40" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
       <c r="G40" s="53">
         <f>SUM(G12:G39)</f>
         <v>309329000</v>
@@ -23831,11 +23857,11 @@
       <c r="B42" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="168">
+      <c r="E42" s="176">
         <f>I40</f>
         <v>38500000</v>
       </c>
-      <c r="F42" s="168"/>
+      <c r="F42" s="176"/>
       <c r="G42" s="55" t="s">
         <v>43</v>
       </c>

--- a/SO SACH - LA/CONG NO/cong no VL.xlsx
+++ b/SO SACH - LA/CONG NO/cong no VL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -2545,8 +2545,8 @@
         <v>96</v>
       </c>
       <c r="C8" s="164">
-        <f>'MÈ ĐƯỞNG'!$I$262</f>
-        <v>210799533</v>
+        <f>'MÈ ĐƯỞNG'!$I$270</f>
+        <v>164559533</v>
       </c>
       <c r="D8" s="100"/>
     </row>
@@ -2619,7 +2619,7 @@
       <c r="B15" s="175"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>405812773</v>
+        <v>359572773</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10692,16 +10692,16 @@
   </sheetData>
   <autoFilter ref="A11:K202"/>
   <mergeCells count="10">
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A202:F202"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.4" right="0.15" top="0.51" bottom="0.52" header="0.5" footer="0.5"/>
@@ -10717,7 +10717,7 @@
   </sheetPr>
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
@@ -14765,12 +14765,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="33"/>
   </sheetPr>
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="G250" sqref="G250:G254"/>
+      <selection pane="bottomLeft" activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="F192" s="113"/>
       <c r="G192" s="11">
-        <f t="shared" ref="G192:G261" si="19">IF(B192&lt;&gt;"",D192*(E192+F192),0)</f>
+        <f t="shared" ref="G192:G269" si="19">IF(B192&lt;&gt;"",D192*(E192+F192),0)</f>
         <v>11400000</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="11">
-        <f t="shared" ref="I192:I261" si="20">IF(B192&lt;&gt;"",I191+G192-H192,0)</f>
+        <f t="shared" ref="I192:I216" si="20">IF(B192&lt;&gt;"",I191+G192-H192,0)</f>
         <v>208846200</v>
       </c>
       <c r="J192" s="11"/>
@@ -21251,208 +21251,408 @@
       <c r="J254" s="11"/>
     </row>
     <row r="255" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
-      <c r="B255" s="13"/>
+      <c r="A255" s="12">
+        <v>42386</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C255" s="13"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="D255" s="11">
+        <v>100</v>
+      </c>
+      <c r="E255" s="11">
+        <v>75000</v>
+      </c>
       <c r="F255" s="113"/>
       <c r="G255" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="H255" s="11"/>
       <c r="I255" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>218299533</v>
       </c>
       <c r="J255" s="11"/>
     </row>
     <row r="256" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
-      <c r="B256" s="13"/>
+      <c r="B256" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C256" s="13"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="D256" s="11">
+        <v>500</v>
+      </c>
+      <c r="E256" s="11">
+        <v>16800</v>
+      </c>
       <c r="F256" s="113"/>
       <c r="G256" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="H256" s="11"/>
       <c r="I256" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>226699533</v>
       </c>
       <c r="J256" s="11"/>
     </row>
     <row r="257" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
-      <c r="B257" s="13"/>
+      <c r="B257" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="C257" s="13"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="D257" s="11">
+        <v>10</v>
+      </c>
+      <c r="E257" s="11">
+        <v>1050000</v>
+      </c>
       <c r="F257" s="113"/>
       <c r="G257" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>10500000</v>
       </c>
       <c r="H257" s="11"/>
       <c r="I257" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>237199533</v>
       </c>
       <c r="J257" s="11"/>
     </row>
     <row r="258" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="12"/>
-      <c r="B258" s="13"/>
+      <c r="A258" s="12">
+        <v>42393</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C258" s="13"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="D258" s="11">
+        <v>100</v>
+      </c>
+      <c r="E258" s="11">
+        <v>75000</v>
+      </c>
       <c r="F258" s="113"/>
       <c r="G258" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="H258" s="11"/>
       <c r="I258" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>244699533</v>
       </c>
       <c r="J258" s="11"/>
     </row>
     <row r="259" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
-      <c r="B259" s="13"/>
+      <c r="A259" s="12">
+        <v>42397</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="C259" s="13"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="D259" s="11">
+        <v>2</v>
+      </c>
+      <c r="E259" s="11">
+        <v>480000</v>
+      </c>
       <c r="F259" s="113"/>
       <c r="G259" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="H259" s="11"/>
       <c r="I259" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>245659533</v>
       </c>
       <c r="J259" s="11"/>
     </row>
     <row r="260" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
-      <c r="B260" s="13"/>
+      <c r="A260" s="12">
+        <v>42438</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C260" s="13"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="D260" s="11">
+        <v>500</v>
+      </c>
+      <c r="E260" s="11">
+        <v>16800</v>
+      </c>
       <c r="F260" s="113"/>
       <c r="G260" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="H260" s="11"/>
       <c r="I260" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>254059533</v>
       </c>
       <c r="J260" s="11"/>
     </row>
     <row r="261" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
-      <c r="B261" s="13"/>
+      <c r="B261" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="C261" s="13"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="D261" s="11">
+        <v>10</v>
+      </c>
+      <c r="E261" s="11">
+        <v>1050000</v>
+      </c>
       <c r="F261" s="113"/>
       <c r="G261" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="G261:G269" si="29">IF(B261&lt;&gt;"",D261*(E261+F261),0)</f>
+        <v>10500000</v>
       </c>
       <c r="H261" s="11"/>
       <c r="I261" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="I261:I269" si="30">IF(B261&lt;&gt;"",I260+G261-H261,0)</f>
+        <v>264559533</v>
       </c>
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="184" t="s">
+    <row r="262" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="12">
+        <v>42407</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="13"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="113"/>
+      <c r="G262" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H262" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="I262" s="11">
+        <f t="shared" si="30"/>
+        <v>164559533</v>
+      </c>
+      <c r="J262" s="11"/>
+    </row>
+    <row r="263" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="113"/>
+      <c r="G263" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J263" s="11"/>
+    </row>
+    <row r="264" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="12"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="113"/>
+      <c r="G264" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J264" s="11"/>
+    </row>
+    <row r="265" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="12"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="113"/>
+      <c r="G265" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J265" s="11"/>
+    </row>
+    <row r="266" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="12"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="113"/>
+      <c r="G266" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J266" s="11"/>
+    </row>
+    <row r="267" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="12"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="113"/>
+      <c r="G267" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J267" s="11"/>
+    </row>
+    <row r="268" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="12"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="113"/>
+      <c r="G268" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J268" s="11"/>
+    </row>
+    <row r="269" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="12"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="113"/>
+      <c r="G269" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J269" s="11"/>
+    </row>
+    <row r="270" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B262" s="184"/>
-      <c r="C262" s="184"/>
-      <c r="D262" s="184"/>
-      <c r="E262" s="184"/>
-      <c r="F262" s="184"/>
-      <c r="G262" s="53">
-        <f>SUM(G13:G261)</f>
-        <v>2612809533</v>
-      </c>
-      <c r="H262" s="53">
-        <f>SUM(H13:H261)</f>
-        <v>2491710000</v>
-      </c>
-      <c r="I262" s="17">
-        <f>I12+G262-H262</f>
-        <v>210799533</v>
-      </c>
-      <c r="J262" s="17"/>
-    </row>
-    <row r="263" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="54" t="s">
+      <c r="B270" s="184"/>
+      <c r="C270" s="184"/>
+      <c r="D270" s="184"/>
+      <c r="E270" s="184"/>
+      <c r="F270" s="184"/>
+      <c r="G270" s="53">
+        <f>SUM(G13:G269)</f>
+        <v>2666569533</v>
+      </c>
+      <c r="H270" s="53">
+        <f>SUM(H13:H269)</f>
+        <v>2591710000</v>
+      </c>
+      <c r="I270" s="17">
+        <f>I12+G270-H270</f>
+        <v>164559533</v>
+      </c>
+      <c r="J270" s="17"/>
+    </row>
+    <row r="271" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E264" s="176">
-        <f>I262</f>
-        <v>210799533</v>
-      </c>
-      <c r="F264" s="176"/>
-      <c r="G264" s="55" t="s">
+      <c r="E272" s="176">
+        <f>I270</f>
+        <v>164559533</v>
+      </c>
+      <c r="F272" s="176"/>
+      <c r="G272" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="54" t="s">
+    <row r="273" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C265" s="56" t="e">
-        <f ca="1">[1]!VND(E264, TRUE)</f>
+      <c r="C273" s="56" t="e">
+        <f ca="1">[1]!VND(E272, TRUE)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H267" s="20" t="s">
+    <row r="274" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H275" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+    <row r="276" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G268" s="4" t="s">
+      <c r="G276" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E272:F272"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A12:H12"/>
@@ -21460,7 +21660,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A270:F270"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.43" right="0.15" top="0.51" bottom="0.54" header="0.5" footer="0.5"/>

--- a/SO SACH - LA/CONG NO/cong no VL.xlsx
+++ b/SO SACH - LA/CONG NO/cong no VL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="5"/>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THÀNH PHÚ'!$A$11:$K$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="284">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>Cá bò</t>
+  </si>
+  <si>
+    <t>Ochoen</t>
   </si>
 </sst>
 </file>
@@ -2510,22 +2513,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="96">
         <f t="array" ref="A6">IF(C6&lt;&gt;0,SUM(($C$4:C6&lt;&gt;0)*1),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="164">
         <f>'NGHỊ HÒA'!$K$77</f>
-        <v>0</v>
+        <v>17316750</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <f t="array" ref="A7">IF(C7&lt;&gt;0,SUM(($C$4:C7&lt;&gt;0)*1),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>90</v>
@@ -2539,7 +2542,7 @@
     <row r="8" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <f t="array" ref="A8">IF(C8&lt;&gt;0,SUM(($C$4:C8&lt;&gt;0)*1),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>96</v>
@@ -2551,30 +2554,30 @@
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96">
+      <c r="A9" s="96" t="str">
         <f t="array" ref="A9">IF(C9&lt;&gt;0,SUM(($C$4:C9&lt;&gt;0)*1),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="B9" s="88" t="s">
         <v>268</v>
       </c>
       <c r="C9" s="164">
         <f>'ANH KIM'!I61</f>
-        <v>46833400</v>
+        <v>0</v>
       </c>
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96">
+      <c r="A10" s="96" t="str">
         <f t="array" ref="A10">IF(C10&lt;&gt;0,SUM(($C$4:C10&lt;&gt;0)*1),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="B10" s="62" t="s">
         <v>242</v>
       </c>
       <c r="C10" s="164">
         <f>'TÂN MINH THƯ'!I40</f>
-        <v>38500000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="100"/>
     </row>
@@ -2619,7 +2622,7 @@
       <c r="B15" s="175"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>359572773</v>
+        <v>291556123</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10718,9 +10721,9 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12912,54 +12915,80 @@
       <c r="L69" s="30"/>
     </row>
     <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="A70" s="72">
+        <v>42431</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="16">
+        <v>1015</v>
+      </c>
+      <c r="G70" s="16">
+        <v>12000</v>
+      </c>
       <c r="H70" s="21">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I70" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13398000</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>13398000</v>
       </c>
       <c r="L70" s="30"/>
     </row>
     <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="B71" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="16">
+        <v>375</v>
+      </c>
+      <c r="G71" s="16">
+        <v>9500</v>
+      </c>
       <c r="H71" s="21">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="I71" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3918750</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>17316750</v>
       </c>
       <c r="L71" s="30"/>
     </row>
     <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
-      <c r="B72" s="127"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="72"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -12982,7 +13011,7 @@
     </row>
     <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
-      <c r="B73" s="127"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="72"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -13085,7 +13114,7 @@
       <c r="H77" s="189"/>
       <c r="I77" s="17">
         <f>SUM(I13:I76)</f>
-        <v>388962090</v>
+        <v>406278840</v>
       </c>
       <c r="J77" s="17">
         <f>SUM(J13:J76)</f>
@@ -13093,7 +13122,7 @@
       </c>
       <c r="K77" s="17">
         <f>K12+I77-J77</f>
-        <v>0</v>
+        <v>17316750</v>
       </c>
       <c r="L77" s="115"/>
     </row>
@@ -13117,7 +13146,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="176">
         <f>K77</f>
-        <v>0</v>
+        <v>17316750</v>
       </c>
       <c r="F79" s="176"/>
       <c r="G79" s="55" t="s">
@@ -19640,7 +19669,7 @@
       </c>
       <c r="F192" s="113"/>
       <c r="G192" s="11">
-        <f t="shared" ref="G192:G269" si="19">IF(B192&lt;&gt;"",D192*(E192+F192),0)</f>
+        <f t="shared" ref="G192:G216" si="19">IF(B192&lt;&gt;"",D192*(E192+F192),0)</f>
         <v>11400000</v>
       </c>
       <c r="H192" s="11"/>
@@ -21679,7 +21708,7 @@
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22962,23 +22991,30 @@
       </c>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="113"/>
+    <row r="56" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="120">
+        <v>42437</v>
+      </c>
+      <c r="B56" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="121"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="114"/>
       <c r="G56" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="11"/>
+        <f t="shared" ref="G56" si="5">IF(B56&lt;&gt;"",D56*(E56+F56),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="32">
+        <f>I55</f>
+        <v>46833400</v>
+      </c>
+      <c r="I56" s="32">
+        <f t="shared" ref="I56" si="6">IF(B56&lt;&gt;"",I55+G56-H56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
@@ -23067,11 +23103,11 @@
       </c>
       <c r="H61" s="53">
         <f>SUM(H12:H60)</f>
-        <v>236558000</v>
+        <v>283391400</v>
       </c>
       <c r="I61" s="17">
         <f>G61-H61</f>
-        <v>46833400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="17"/>
     </row>
@@ -23082,7 +23118,7 @@
       </c>
       <c r="E63" s="176">
         <f>I61</f>
-        <v>46833400</v>
+        <v>0</v>
       </c>
       <c r="F63" s="176"/>
       <c r="G63" s="55" t="s">
@@ -23155,7 +23191,7 @@
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23958,8 +23994,12 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="12">
+        <v>42444</v>
+      </c>
+      <c r="B36" s="120" t="s">
+        <v>250</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -23968,7 +24008,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="32">
+        <f>I35</f>
+        <v>38500000</v>
+      </c>
       <c r="I36" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -24044,11 +24087,11 @@
       </c>
       <c r="H40" s="53">
         <f>SUM(H12:H39)</f>
-        <v>270829000</v>
+        <v>309329000</v>
       </c>
       <c r="I40" s="17">
         <f>G40-H40</f>
-        <v>38500000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="17"/>
     </row>
@@ -24059,7 +24102,7 @@
       </c>
       <c r="E42" s="176">
         <f>I40</f>
-        <v>38500000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="176"/>
       <c r="G42" s="55" t="s">
